--- a/bom/دوقلو/9.6 صادراتی.xlsx
+++ b/bom/دوقلو/9.6 صادراتی.xlsx
@@ -5,26 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.rezaei\Desktop\bom\دوقلو\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.rezaei\Desktop\TWIN TUBE WASHING MASHINE BOM\دوقلو\9.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C51F62-BA40-4A1E-9F7C-C64B11A01DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3887056A-C797-499D-9970-17AEBAD90E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="خروجی ساده" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'خروجی ساده'!$A$1:$B$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'خروجی ساده'!$A$1:$B$140</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="299">
   <si>
     <t>نام کالا</t>
   </si>
@@ -296,18 +310,12 @@
     <t>شفت آبکش</t>
   </si>
   <si>
-    <t>شیشه درب خشک کن  (توضیحات)</t>
-  </si>
-  <si>
     <t>شیشه درب خشک کن 9.6 طرح گل بهشت</t>
   </si>
   <si>
     <t>شیشه درب خشک کن 9.6 طرح گل گرافیکی</t>
   </si>
   <si>
-    <t>شیشه درب شستشو  (توضیحات)</t>
-  </si>
-  <si>
     <t>شیشه درب شستشو 9.6 طرح گل بهشت</t>
   </si>
   <si>
@@ -350,9 +358,6 @@
     <t>طلق کنترل پنل 9.6 سری G سفید</t>
   </si>
   <si>
-    <t>طلق کنترل پنل  (توضیحات)</t>
-  </si>
-  <si>
     <t>طلق کنترل پنل 9/6 سری G (زرشکی 1582)</t>
   </si>
   <si>
@@ -389,9 +394,6 @@
     <t>کابین 9.6</t>
   </si>
   <si>
-    <t>کارتن 9.6  توسابی</t>
-  </si>
-  <si>
     <t>کارتن 9.6 الذهبی صادراتی</t>
   </si>
   <si>
@@ -404,15 +406,9 @@
     <t>کارتن 9.6 صادراتی جنرال آدمیرال</t>
   </si>
   <si>
-    <t>کارتن آستریا 9.6</t>
-  </si>
-  <si>
     <t>کاسه نمد</t>
   </si>
   <si>
-    <t>کاور  نایلونی سوراخ دار(درجه یک)</t>
-  </si>
-  <si>
     <t>کاور ضمانت نامه 30*20</t>
   </si>
   <si>
@@ -461,15 +457,9 @@
     <t>لگن 9.6</t>
   </si>
   <si>
-    <t>لولای فریم  چپ ( سری G ) سفید</t>
-  </si>
-  <si>
     <t>لولای فریم راست ( سری G ) سفید</t>
   </si>
   <si>
-    <t>لیبل  تبلیغاتی آستریا</t>
-  </si>
-  <si>
     <t>لیبل 21*31</t>
   </si>
   <si>
@@ -530,9 +520,6 @@
     <t>موتور شستشو 9.6</t>
   </si>
   <si>
-    <t>نشانک باگلت 9.6  سری G دودی</t>
-  </si>
-  <si>
     <t>نشانک باگلت 9/6 سری G آبی رنگ</t>
   </si>
   <si>
@@ -602,9 +589,6 @@
     <t>شیشه درب خشک کن 9.6 طرح گل پامچال</t>
   </si>
   <si>
-    <t xml:space="preserve">شیشه درب شستشو 9.6 طرح شمع </t>
-  </si>
-  <si>
     <t>شیشه درب خشک کن 9.6 طرح شمع</t>
   </si>
   <si>
@@ -620,15 +604,6 @@
     <t>شیشه درب خشک کن 9.6 طرح برگ طلایی</t>
   </si>
   <si>
-    <t>لیبل  تبلیغاتی bubble wash</t>
-  </si>
-  <si>
-    <t>لیبل  تبلیغاتی make is comfortable</t>
-  </si>
-  <si>
-    <t>لیبل  تبلیغاتی لباسشویی دوقلو پاکشوما (برند جدید)</t>
-  </si>
-  <si>
     <t>لیبل تبلیغاتی POWERFUL MOTOR</t>
   </si>
   <si>
@@ -636,13 +611,337 @@
   </si>
   <si>
     <t>لیبل گارانتی 18 ماه الجولس</t>
+  </si>
+  <si>
+    <t>واشر تخت شفت گیربکس 9.6</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 سری N دکستر</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 سه باگلته انصار</t>
+  </si>
+  <si>
+    <t>لگن بدون کاسه نمد 9/6</t>
+  </si>
+  <si>
+    <t>شیلنگ شستشو تقسیم آب 15.5</t>
+  </si>
+  <si>
+    <t>کاور نایلونی سوراخ دار(درجه یک)</t>
+  </si>
+  <si>
+    <t>لولای فریم چپ ( سری G ) سفید</t>
+  </si>
+  <si>
+    <t>شیشه درب شستشو 9.6 طرح موج طوسی</t>
+  </si>
+  <si>
+    <t>شیشه درب خشک کن 9.6 طرح موج طوسی</t>
+  </si>
+  <si>
+    <t>نشانک باگلت 9.6 سری G دودی</t>
+  </si>
+  <si>
+    <t>کارتن کرال 9.6 (صادراتی)</t>
+  </si>
+  <si>
+    <t>کارتن دکستر 9.6</t>
+  </si>
+  <si>
+    <t>کارتن طیبه شام 9.6</t>
+  </si>
+  <si>
+    <t>کارتن گرین تکس 9.6 (صادراتی)</t>
+  </si>
+  <si>
+    <t>کارتن پاکشوما 9.6 (صادراتی)</t>
+  </si>
+  <si>
+    <t>کارتن 9.6 توسابی</t>
+  </si>
+  <si>
+    <t>لیبل تبلیغاتی آستریا</t>
+  </si>
+  <si>
+    <t>لیبل تبلیغاتیTURBO WASH سایز 27 * 31 سانتی متر</t>
+  </si>
+  <si>
+    <t>لیبل تبلیغاتی super wash</t>
+  </si>
+  <si>
+    <t>لیبل تبلیغاتی make is comfortable</t>
+  </si>
+  <si>
+    <t>لیبل تبلیغاتی گرین تکس</t>
+  </si>
+  <si>
+    <t>لیبل تبلیغاتی bubble wash</t>
+  </si>
+  <si>
+    <t>لیبل تبلیغاتی لباسشویی دوقلو پاکشوما (برند جدید)</t>
+  </si>
+  <si>
+    <t>لیبل گارانتی کرال و توسابی</t>
+  </si>
+  <si>
+    <t>طلق کنترل پنل 9.6 سری G چاپ شده دکستر</t>
+  </si>
+  <si>
+    <t>طلق کنترل پنل 9.6 سری G چاپ شده گرین تکس</t>
+  </si>
+  <si>
+    <t>طلق کنترل پنل 9.6 سری G چاپ شده پاکشوما</t>
+  </si>
+  <si>
+    <t>طلق کنترل پنل 9.6 سه باگلته مشکی چاپ شده انصار</t>
+  </si>
+  <si>
+    <t>تایمر برنامه 9.6 سه باگلت</t>
+  </si>
+  <si>
+    <t>تایمر شستشو 9.6 سه باگلت</t>
+  </si>
+  <si>
+    <t>شیشه درب خشک کن (توضیحات)</t>
+  </si>
+  <si>
+    <t>شیشه درب شستشو (توضیحات)</t>
+  </si>
+  <si>
+    <t>شیشه درب شستشو 9.6 طرح شمع</t>
+  </si>
+  <si>
+    <t>طلق کنترل پنل (توضیحات)</t>
+  </si>
+  <si>
+    <t>فعال</t>
+  </si>
+  <si>
+    <t>طلق کنترل پنل 9.6 سری G چاپ شده آستریا</t>
+  </si>
+  <si>
+    <t>قالب طلق کنترل پنل 9.6 ( سری G )</t>
+  </si>
+  <si>
+    <t>کارتن پلاست پشت محصول ظرفشویی Kenwood</t>
+  </si>
+  <si>
+    <t>کارتن پلاست کف پالت یخچال فریزر ساید 815</t>
+  </si>
+  <si>
+    <t>کارتن پلاست کف پالت یخچال فریزر ساید 595</t>
+  </si>
+  <si>
+    <t>کارتن جارو شارژی VS1 سری "فلو"</t>
+  </si>
+  <si>
+    <t>کارتن جارو شارژی VS2 سری "ویا"</t>
+  </si>
+  <si>
+    <t>دستگیره پلاستیکی کارتن جارو شارژی</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی فریزر دوقلو کندی جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی یخچال دوقلو کندی جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی کمبی- کندی  جدید ( 1900 * 790 * 750 )</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی 746 کندی جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی 482 کندی جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی 650 کندی جدید</t>
+  </si>
+  <si>
+    <t>کارتن 21 گرین تکس</t>
+  </si>
+  <si>
+    <t>کارتن 9.6 الجولس</t>
+  </si>
+  <si>
+    <t>کارتن لباسشویی درب از بالای 12 کیلویی کرال</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی یخچال 482  پاکشوما لوگو جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی ساید 746  پاکشوما  لوگو جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی یخچال 650  پاکشوما لوگو جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی یخچال کمبی پاکشوما لوگو جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی فریزر دوقلو پاکشوما  لوگو جدید</t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی یخچال دوقلو  پاکشوما لوگو جدید</t>
+  </si>
+  <si>
+    <t>کارتن 21 اوستو</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 اوستو</t>
+  </si>
+  <si>
+    <t>کارتن 9.6 اوستو</t>
+  </si>
+  <si>
+    <t>کارتن محافط C3</t>
+  </si>
+  <si>
+    <t>کارتن جارو برقی -C3</t>
+  </si>
+  <si>
+    <t>کارتن لباسشویی 9.6 طیبه شام</t>
+  </si>
+  <si>
+    <t>کارتن 21 آستریا</t>
+  </si>
+  <si>
+    <t>کارتن 21 توسابی</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 آستریا</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 توسابی</t>
+  </si>
+  <si>
+    <t>کارتن 9.6 آستریا</t>
+  </si>
+  <si>
+    <t>کارتن کف محصولات مس سایز 50</t>
+  </si>
+  <si>
+    <t>کارتن درب محصولات مس سایز 50 </t>
+  </si>
+  <si>
+    <t>کارتن بسته بندی TG8</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 الجولس صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 21 انصار صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 21 آذرکنکا صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 آذرکنکا صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 9.6 آذرکنکا صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 عشتارتک صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 21 جیبال صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 جیبال صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 21 الذهبی صارداتی</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 الذهبی صادارتی</t>
+  </si>
+  <si>
+    <t>کارتن 21 الجولس صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 21 آگورا صادراتی</t>
+  </si>
+  <si>
+    <t>کارتن 15.5 آگورا صادراتی</t>
+  </si>
+  <si>
+    <t>کنترل پنل 9.6 سری N چاپ شده دکستر</t>
+  </si>
+  <si>
+    <t>کنترل پنل 9.6 طرح N چاپ شده گرین تکس</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 طرح N گرین تکس</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6kg طرح N آستریا</t>
+  </si>
+  <si>
+    <t>کنترل پنل 9.6kg طرح N چاپ شده آستریا</t>
+  </si>
+  <si>
+    <t>کنترل پنل 9.6kg طرح N چاپ شده توسابی</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6kg طرح N توسابی</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 سری G دکستر</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 طرح N پاکشوما صادراتی</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 پاکشوما صادراتی سری G</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 طرح N طیبه شام</t>
+  </si>
+  <si>
+    <t>کنترل پنل 9.6 طرح N چاپ شده طیبه شام</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 طرح N اوستو</t>
+  </si>
+  <si>
+    <t>کنترل پنل 9.6 طرح N چاپ شده اوستو</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 سری G آستریا</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 سری G گرین تکس</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 کرال سری G</t>
+  </si>
+  <si>
+    <t>کنترل پنل 9.6چاپ شده پاکشوما</t>
+  </si>
+  <si>
+    <t>مجموعه کنترل پنل 9.6 پاکشوما</t>
+  </si>
+  <si>
+    <t>قالب کنترل پنل 9.6 ( سری G )</t>
+  </si>
+  <si>
+    <t>قالب کنترل پنل 9.6 طرح N</t>
+  </si>
+  <si>
+    <t>قالب قاب روی کنترل پنل 9.6</t>
+  </si>
+  <si>
+    <t>کنترل پنل چاپ شده 9.6 طرح N الجولس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,16 +950,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Vazirmatn"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,18 +975,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFBDD7EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -689,45 +989,116 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF808080"/>
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080"/>
+        <color rgb="FFA6A6A6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
+        <color rgb="FFA6A6A6"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -737,6 +1108,178 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Vazirmatn"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA6A6A6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFA6A6A6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA6A6A6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Vazirmatn"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFA6A6A6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA6A6A6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FF000000"/>
+        <name val="Vazirmatn"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Vazirmatn"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA6A6A6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA6A6A6"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFA6A6A6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFA6A6A6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA6A6A6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA6A6A6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFA6A6A6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA6A6A6"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,6 +1292,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A573164-5E33-4629-A1BF-818EEC1AD635}" name="Table1" displayName="Table1" ref="A1:B237" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:B237" xr:uid="{2A573164-5E33-4629-A1BF-818EEC1AD635}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1882E759-60F0-4D6A-8D41-B6FB3FDB7640}" name="نام کالا" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{94502956-085D-496F-888D-42307AF55D5F}" name="کد راهکاران" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,1665 +1590,2773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="1" max="1" width="50.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1749365009</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>1749360009</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1709030063</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>1749560019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1749275003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>1749265005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1726025003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>1726015004</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>1726055002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>1909070410</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="5">
         <v>1909070417</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>1909070322</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>1909070325</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>1909070321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="5">
         <v>1454290012</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>1715235002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>1715305006</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>1715250001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5">
         <v>1724015006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>1724015005</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5">
         <v>1724300055</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>1724105001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="5">
         <v>1724165004</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>1733030003</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="5">
         <v>1733075006</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>1749015105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="5">
         <v>1735055003</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>1312030054</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="5">
         <v>1312040111</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>1312030075</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="5">
         <v>1312030076</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>1312030074</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="5">
         <v>1312030073</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>1312040205</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="5">
         <v>1312030067</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>1312030069</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="5">
         <v>1312030068</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>1313030021</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="5">
         <v>1312300038</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>1313030023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="5">
         <v>1313030022</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>1313030018</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="5">
         <v>1313040014</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>1749035003</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="5">
         <v>2107040006</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2107040005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="5">
         <v>2107040025</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B50" s="5">
         <v>2107040007</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="5">
         <v>2107040010</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B52" s="5">
         <v>2107040017</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B53" s="5">
         <v>2107040012</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2107040015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B55" s="5">
         <v>1909010001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B56" s="5">
         <v>1710010004</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B57" s="5">
         <v>1710135008</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B58" s="5">
         <v>1710135011</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B59" s="5">
         <v>1316110011</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="2" t="s">
+    <row r="60" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B60" s="5">
         <v>1330260086</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B61" s="5">
         <v>1330260062</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B62" s="5">
         <v>1749015157</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="3" t="s">
+    <row r="63" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B63" s="5">
         <v>1221010076</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="2" t="s">
+    <row r="64" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B64" s="5">
         <v>1719045020</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A63" s="3" t="s">
+    <row r="65" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B65" s="5">
         <v>1719045006</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A64" s="2" t="s">
+    <row r="66" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B66" s="5">
         <v>1719025017</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A65" s="3" t="s">
+    <row r="67" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B67" s="5">
         <v>1719025006</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="2" t="s">
+    <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B68" s="5">
         <v>1719035002</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A67" s="3" t="s">
+    <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B69" s="5">
         <v>1732015044</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B70" s="5">
         <v>1732015043</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="3" t="s">
+    <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B71" s="5">
         <v>1732055042</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A70" s="2" t="s">
+    <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B72" s="5">
         <v>1749015179</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="3" t="s">
+    <row r="73" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B73" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A72" s="2" t="s">
+    <row r="74" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B74" s="5">
         <v>1909080306</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="3" t="s">
+    <row r="75" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B75" s="5">
         <v>1909080138</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="2" t="s">
+    <row r="76" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B76" s="5">
         <v>1227155090</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A75" s="3" t="s">
+    <row r="77" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B77" s="5">
         <v>1227155088</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A76" s="2" t="s">
+    <row r="78" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B78" s="5">
         <v>1749015201</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A77" s="3" t="s">
+    <row r="79" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B79" s="5">
         <v>1749015225</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B80" s="5">
         <v>1749015263</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A79" s="3" t="s">
+    <row r="81" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B81" s="5">
         <v>1749015269</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A80" s="2" t="s">
+    <row r="82" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B82" s="5">
         <v>1750095001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="3" t="s">
+    <row r="83" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B83" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A82" s="2" t="s">
+    <row r="84" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B84" s="5">
         <v>1749010328</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="3" t="s">
+    <row r="85" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B85" s="5">
         <v>1749010357</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B86" s="5">
         <v>1749010364</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A85" s="3" t="s">
+    <row r="87" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B87" s="5">
         <v>1749015345</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="2" t="s">
+    <row r="88" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B88" s="5">
         <v>1749016288</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A87" s="3" t="s">
+    <row r="89" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B89" s="5">
         <v>1749015349</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A88" s="2" t="s">
+    <row r="90" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B90" s="5">
         <v>1716025002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A89" s="3" t="s">
+    <row r="91" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B91" s="5">
         <v>1749010443</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A90" s="2" t="s">
+    <row r="92" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1749560058</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1749560006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="5">
+        <v>1749010824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="5">
+        <v>1749016698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1749560023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B98" s="5">
+        <v>1749560021</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1749560012</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1749010820</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1749010826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="5">
+        <v>1749560014</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1749560046</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1749560034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="3" t="s">
+    <row r="106" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1749560057</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="5">
+        <v>1749560005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1749010823</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1749016697</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1749560022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="5">
+        <v>1749560020</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1749560011</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B113" s="5">
+        <v>1749010819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1749010825</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1749560013</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1749560045</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1749560033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="5">
+        <v>1449025005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="5">
+        <v>1449025002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="5">
+        <v>1449025014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1449025003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="5">
+        <v>1449025013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="5">
+        <v>1749015569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1449025004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1749015629</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" s="5">
+        <v>1749015665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="5">
+        <v>1749010814</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="6">
+        <v>1910100196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="6">
+        <v>1910100195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" s="6">
+        <v>1910100198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B133" s="6">
+        <v>1910100194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B134" s="6">
+        <v>1910100193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" s="6">
+        <v>1910100180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B136" s="6">
+        <v>1910100199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B137" s="5">
+        <v>1910100167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="5">
+        <v>1749015712</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" s="5">
+        <v>1749015719</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="5">
+        <v>1740305064</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141" s="5">
+        <v>1740305022</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1721130020</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1721130015</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="5">
+        <v>1721050001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B145" s="5">
+        <v>1717145082</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1717145081</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1210070077</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1749405001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B149" s="6">
+        <v>1909050986</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B150" s="6">
+        <v>1909050514</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1909050508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B152" s="6">
+        <v>1909050576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" s="6">
+        <v>1909050520</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A154" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B154" s="6">
+        <v>1909050554</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B155" s="6">
+        <v>1909050553</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1909050302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1909050306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" s="5">
+        <v>1909050306</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" s="5">
+        <v>1909050306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1909050306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B162" s="5">
+        <v>1909050306</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1749010650</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1749015987</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B165" s="5">
+        <v>1749015997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B166" s="5">
+        <v>1749016028</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B167" s="5">
+        <v>1749015892</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1749375079</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1227130004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B170" s="5">
+        <v>2107011007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B171" s="6">
+        <v>2107010984</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A172" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B172" s="6">
+        <v>2107011031</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B173" s="6">
+        <v>2107010993</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A174" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B174" s="6">
+        <v>2107010998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B175" s="6">
+        <v>2107011028</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A176" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B176" s="6">
+        <v>2107011018</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B177" s="6">
+        <v>2107011014</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A178" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B178" s="6">
+        <v>2107010911</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B179" s="5">
+        <v>2107010769</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2107015113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181" s="5">
+        <v>1712300003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B182" s="5">
+        <v>1749016051</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183" s="5">
+        <v>1749016057</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1332040006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B185" s="5">
+        <v>1749016179</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" s="5">
+        <v>1749016280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1749016198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B188" s="5">
+        <v>1746015010</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1746015011</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B91" s="5">
-        <v>1749560058</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A92" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="5">
-        <v>1749560006</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A93" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="5">
-        <v>1749010824</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A94" s="3" t="s">
+      <c r="B190" s="5">
+        <v>1749510012</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" s="5">
+        <v>1749510011</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1909070326</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B193" s="5">
+        <v>1909070324</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B194" s="5">
+        <v>1909070327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B195" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B196" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B197" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="5">
-        <v>1749016698</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A95" s="3" t="s">
+      <c r="B200" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1909072048</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B204" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1909072227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1514010039</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1514010013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1514010042</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B209" s="5">
+        <v>1514010035</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1501010433</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1514010009</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B212" s="5">
+        <v>1514010015</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B214" s="5">
+        <v>1514040041</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B215" s="5">
+        <v>1514010073</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="5">
-        <v>1749560023</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A96" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="5">
-        <v>1749560021</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A97" s="3" t="s">
+      <c r="B216" s="5">
+        <v>1514040059</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1514040022</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1514010003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1730025004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1730305009</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B221" s="5">
+        <v>1451090002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B222" s="5">
+        <v>1320040001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B223" s="5">
+        <v>1208010150</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B224" s="5">
+        <v>1208010153</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A225" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1749560028</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1749016508</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B227" s="5">
+        <v>1211010003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B228" s="5">
+        <v>1906080091</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B229" s="5">
+        <v>1749016222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1302050001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B231" s="5">
+        <v>1302300106</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="5">
-        <v>1749560012</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="5">
-        <v>1749010820</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A99" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B99" s="5">
-        <v>1749010826</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A100" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="5">
-        <v>1749560014</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B101" s="5">
-        <v>1749560046</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A102" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A103" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B103" s="4">
-        <v>1749560057</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="4">
-        <v>1749560005</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A105" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1749010823</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A106" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B106" s="4">
-        <v>1749016697</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A107" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B107" s="4">
-        <v>1749560022</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A108" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="4">
-        <v>1749560020</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A109" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="4">
-        <v>1749560011</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A110" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B110" s="4">
-        <v>1749010819</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A111" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B111" s="4">
-        <v>1749010825</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="4">
-        <v>1749560013</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A113" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B113" s="4">
-        <v>1749560045</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A114" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="4">
-        <v>1449025005</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A115" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="5">
-        <v>1449025002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A116" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="4">
-        <v>1449025014</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A117" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="5">
-        <v>1449025003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A118" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="4">
-        <v>1449025013</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A119" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B119" s="5">
-        <v>1749015569</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A120" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" s="4">
-        <v>1449025004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A121" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="5">
-        <v>1749015665</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A122" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="4">
-        <v>1749010814</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A123" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A124" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B124" s="5">
-        <v>1910100195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A125" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B125" s="4">
-        <v>1910100194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A126" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B126" s="5">
-        <v>1910100180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A127" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B127" s="5">
-        <v>1910100167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A128" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B128" s="4">
-        <v>1749015712</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A129" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" s="5">
-        <v>1749015719</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B130" s="4">
-        <v>1740305064</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A131" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="5">
-        <v>1740305022</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A132" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" s="4">
-        <v>1721130020</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A133" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B133" s="5">
-        <v>1721130015</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A134" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="4">
-        <v>1721050001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A135" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135" s="5">
-        <v>1717145082</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A136" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="4">
-        <v>1717145081</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A137" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B137" s="5">
-        <v>1210070077</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A138" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="4">
-        <v>1749405001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A139" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B139" s="5">
-        <v>1909050553</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A140" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="4">
-        <v>1909050514</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A141" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" s="5">
-        <v>1909050508</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A142" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A143" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B143" s="5">
-        <v>1909050302</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A144" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B144" s="4">
-        <v>1909050306</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A145" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B145" s="5">
-        <v>1749010650</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A146" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B146" s="4">
-        <v>1749015892</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A147" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B147" s="5">
-        <v>1749015987</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A148" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="4">
-        <v>1749015997</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A149" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B149" s="5">
-        <v>1749016028</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A150" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B150" s="4">
-        <v>1749375079</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A151" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B151" s="5">
-        <v>1227130004</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A152" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B152" s="4">
-        <v>2107010984</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A153" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B153" s="5">
-        <v>2107010769</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="4">
-        <v>2107015113</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A155" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B155" s="5">
-        <v>1712300003</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B156" s="4">
-        <v>1749016051</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A157" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B157" s="5">
-        <v>1749016057</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A158" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B158" s="4">
-        <v>1332040006</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A159" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B159" s="5">
-        <v>1749016179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A160" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B160" s="4">
-        <v>1749016280</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A161" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B161" s="5">
-        <v>1749016198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A162" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B162" s="4">
-        <v>1746015010</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A163" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B163" s="5">
-        <v>1749510012</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A164" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B164" s="4">
-        <v>1749510011</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A165" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B165" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A166" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B166" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A167" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B167" s="5">
-        <v>1909072048</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A168" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B168" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A169" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B169" s="4">
-        <v>1909070326</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A170" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B170" s="5">
-        <v>1909070324</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A171" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B171" s="4">
-        <v>1909070327</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A172" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B172" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A173" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A174" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B174" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A175" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B175" s="5">
-        <v>1514010039</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A176" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B176" s="4">
-        <v>1514010013</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A177" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B177" s="5">
-        <v>1514010042</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A178" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B178" s="4">
-        <v>1514010035</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A179" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B179" s="5">
-        <v>1501010433</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A180" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B180" s="4">
-        <v>1514010009</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A181" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B181" s="5">
-        <v>1514010015</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A182" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A183" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B183" s="5">
-        <v>1514040041</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A184" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B184" s="4">
-        <v>1514040022</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A185" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B185" s="5">
-        <v>1514010003</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A186" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B186" s="4">
-        <v>1730025004</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A187" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B187" s="5">
-        <v>1730305009</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A188" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B188" s="4">
-        <v>1451090002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A189" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B189" s="5">
-        <v>1320040001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A190" s="2" t="s">
+      <c r="B232" s="5">
+        <v>1302300105</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B190" s="4">
-        <v>1208010150</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A191" s="3" t="s">
+      <c r="B233" s="5">
+        <v>1302300118</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B191" s="5">
-        <v>1208010153</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A192" s="2" t="s">
+      <c r="B234" s="5">
+        <v>1302300163</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A235" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B192" s="4">
-        <v>1749560028</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A193" s="3" t="s">
+      <c r="B235" s="5">
+        <v>1909130142</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B193" s="5">
-        <v>1749016508</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A194" s="2" t="s">
+      <c r="B236" s="5">
+        <v>1909130058</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A237" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B194" s="4">
-        <v>1211010003</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A195" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B195" s="5">
-        <v>1906080091</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A196" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B196" s="4">
-        <v>1749016222</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A197" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B197" s="5">
-        <v>1302050001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A198" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B198" s="4">
-        <v>1302300106</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A199" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B199" s="5">
-        <v>1302300118</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A200" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B200" s="4">
-        <v>1302300163</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A201" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B201" s="5">
-        <v>1909130142</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A202" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B202" s="4">
-        <v>1909130058</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
-      <c r="A203" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B203" s="5">
+      <c r="B237" s="7">
         <v>1909130065</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B158" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B203">
-      <sortCondition ref="A1:A158"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="A1:B1048576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B204">
+    <sortCondition ref="A2:A204"/>
+  </sortState>
+  <conditionalFormatting sqref="B238:B1048576 B1:B218 A219:A237">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CED0A3-5C4C-4945-97F4-A3BA09606A8A}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1910100199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1910100198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1910100196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1910100195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1910100194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1910100193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1910100180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1802040806</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51331FC8-6413-47AD-9783-7E669310C59E}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="A1:B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1749570009</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1909050524</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1909050515</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1909050577</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1909050521</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1909050556</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1909050511</v>
+      </c>
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1909050555</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1909050517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1909050519</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1909050513</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1909050516</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1909050523</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1909050578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1909050522</v>
+      </c>
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1909050559</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1909050512</v>
+      </c>
+      <c r="B17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1909050557</v>
+      </c>
+      <c r="B18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1909050518</v>
+      </c>
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1909050987</v>
+      </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1909050986</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1909050514</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1909050576</v>
+      </c>
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1909050520</v>
+      </c>
+      <c r="B24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1909050554</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1909050553</v>
+      </c>
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1909050989</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1909050988</v>
+      </c>
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1909050990</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1909050525</v>
+      </c>
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1909050583</v>
+      </c>
+      <c r="B31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1909050580</v>
+      </c>
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1909050993</v>
+      </c>
+      <c r="B33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1909050991</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1909050584</v>
+      </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1909050582</v>
+      </c>
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1909050579</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1909050992</v>
+      </c>
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1909050581</v>
+      </c>
+      <c r="B39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1909050998</v>
+      </c>
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1909050996</v>
+      </c>
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1909050997</v>
+      </c>
+      <c r="B42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1909050574</v>
+      </c>
+      <c r="B43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1909050994</v>
+      </c>
+      <c r="B44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1909050995</v>
+      </c>
+      <c r="B45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1909050527</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1909050526</v>
+      </c>
+      <c r="B47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1909050573</v>
+      </c>
+      <c r="B48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1909050985</v>
+      </c>
+      <c r="B49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1909050575</v>
+      </c>
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
+    <sortCondition ref="B1:B50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74C8520-134A-4EDD-B684-E64B1048A26A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012D9EC-6FC2-47A8-9AE2-A83500C43A1E}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1910100196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1910100195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1910100198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1910100194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1910100193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1910100180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1910100199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1802040806</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1802040082</v>
+      </c>
+      <c r="B9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1802040805</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1802040482</v>
+      </c>
+      <c r="B11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2107010984</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2107011031</v>
+      </c>
+      <c r="B13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2107010993</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2107010998</v>
+      </c>
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2107011028</v>
+      </c>
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2107011018</v>
+      </c>
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2107011014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2107010911</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1514040004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1514040054</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1514040045</v>
+      </c>
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1514040041</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1514010064</v>
+      </c>
+      <c r="B24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1514040039</v>
+      </c>
+      <c r="B25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1514010073</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1514040059</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1514040048</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1514040055</v>
+      </c>
+      <c r="B29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1514040053</v>
+      </c>
+      <c r="B30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1514040056</v>
+      </c>
+      <c r="B31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1514040023</v>
+      </c>
+      <c r="B32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1514040022</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1501040071</v>
+      </c>
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1514010070</v>
+      </c>
+      <c r="B35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B35">
+    <sortCondition ref="B1:B35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>